--- a/SVD_Files/CRC_VK234.xlsx
+++ b/SVD_Files/CRC_VK234.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
   <si>
     <t>0x00</t>
   </si>
@@ -159,9 +159,6 @@
     <t>0xFFFFFFFF</t>
   </si>
   <si>
-    <t>VAL</t>
-  </si>
-  <si>
     <t>0..15</t>
   </si>
   <si>
@@ -190,6 +187,18 @@
   </si>
   <si>
     <t>0x10</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>WO</t>
+  </si>
+  <si>
+    <t>Output Data</t>
+  </si>
+  <si>
+    <t>CRC_VAL</t>
   </si>
 </sst>
 </file>
@@ -240,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -252,9 +261,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -263,6 +269,15 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -545,357 +560,377 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6"/>
+      <c r="D4" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="3"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="4"/>
+      <c r="D6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C9" s="4" t="s">
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="4" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C11" s="4" t="s">
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="D12" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C13" s="4" t="s">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C14" s="4" t="s">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C15" s="4" t="s">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="5"/>
+      <c r="D17" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6"/>
+      <c r="D19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>0</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="3"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>1</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="J21" s="8"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+      <c r="K21" s="7"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>2</v>
       </c>
       <c r="B22" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="5"/>
+      <c r="D24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="5"/>
+      <c r="D25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6"/>
+      <c r="D27" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>42</v>
       </c>
@@ -903,247 +938,260 @@
         <v>43</v>
       </c>
       <c r="C28" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="3"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
       <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="5"/>
+      <c r="D30" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" s="6"/>
+      <c r="D32" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" s="7" t="s">
+      <c r="B37" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B34" s="6" t="s">
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C39" s="5"/>
+      <c r="D39" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B35" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="9" t="s">
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B39" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B40" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C38:H38"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C32:H32"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C23:H23"/>
-    <mergeCell ref="C24:H24"/>
-    <mergeCell ref="C25:H25"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C28:H28"/>
-    <mergeCell ref="C17:H17"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C20:H20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C18:H18"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D21:I21"/>
+    <mergeCell ref="D22:I22"/>
+    <mergeCell ref="D18:I18"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D24:I24"/>
+    <mergeCell ref="D25:I25"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="D31:I31"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SVD_Files/CRC_VK234.xlsx
+++ b/SVD_Files/CRC_VK234.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>0x00</t>
   </si>
@@ -117,9 +117,6 @@
     <t>1: Empty</t>
   </si>
   <si>
-    <t>1: Full</t>
-  </si>
-  <si>
     <t>FIFOOVER</t>
   </si>
   <si>
@@ -199,6 +196,12 @@
   </si>
   <si>
     <t>CRC_VAL</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>1: Full (4 word)</t>
   </si>
 </sst>
 </file>
@@ -268,17 +271,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -562,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21:I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +595,7 @@
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
@@ -608,14 +611,14 @@
         <v>4</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
     </row>
@@ -627,14 +630,14 @@
         <v>6</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -643,14 +646,14 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -659,44 +662,44 @@
       <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -705,91 +708,91 @@
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C16" s="5"/>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="5"/>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -804,15 +807,17 @@
       <c r="B20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="11" t="s">
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
     </row>
@@ -824,16 +829,16 @@
         <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+        <v>55</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
       <c r="K21" s="7"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
@@ -844,35 +849,35 @@
         <v>30</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>3</v>
       </c>
       <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C23" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
@@ -880,49 +885,49 @@
         <v>24</v>
       </c>
       <c r="C24" s="5"/>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C25" s="5"/>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -932,22 +937,22 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="C28" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
     </row>
@@ -957,49 +962,49 @@
         <v>24</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -1009,20 +1014,20 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="C33" s="4"/>
+      <c r="D33" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
     </row>
@@ -1031,47 +1036,47 @@
         <v>24</v>
       </c>
       <c r="C34" s="5"/>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C35" s="5"/>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="6"/>
       <c r="D37" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -1081,20 +1086,20 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="4"/>
+      <c r="D38" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
     </row>
@@ -1103,65 +1108,69 @@
         <v>24</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" s="5"/>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="D41:I41"/>
+    <mergeCell ref="D42:I42"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D4:I4"/>
+    <mergeCell ref="D9:I9"/>
+    <mergeCell ref="D10:I10"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D8:I8"/>
     <mergeCell ref="D20:I20"/>
     <mergeCell ref="D21:I21"/>
     <mergeCell ref="D22:I22"/>
@@ -1178,20 +1187,16 @@
     <mergeCell ref="D31:I31"/>
     <mergeCell ref="D32:I32"/>
     <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D6:I6"/>
+    <mergeCell ref="D7:I7"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D19:I19"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D15:I15"/>
+    <mergeCell ref="D16:I16"/>
+    <mergeCell ref="D12:I12"/>
+    <mergeCell ref="D13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SVD_Files/CRC_VK234.xlsx
+++ b/SVD_Files/CRC_VK234.xlsx
@@ -240,7 +240,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -248,39 +248,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -563,10 +622,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:W43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21:I21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y43" sqref="Y43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,628 +635,724 @@
     <col min="3" max="3" width="7.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4"/>
+      <c r="J4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4"/>
+      <c r="N4"/>
+      <c r="O4"/>
+      <c r="P4"/>
+      <c r="Q4"/>
+      <c r="R4"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
         <v>0</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="8" t="s">
+      <c r="C5" s="8"/>
+      <c r="D5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="8">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" s="8">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="5"/>
+      <c r="D7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="5"/>
+      <c r="D8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D9" s="8" t="s">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="8" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D11" s="8" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="5"/>
+      <c r="D12" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D13" s="8" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D14" s="8" t="s">
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D15" s="8" t="s">
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="4"/>
+      <c r="D16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="9" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="S18" s="2"/>
+    </row>
+    <row r="19" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="8">
         <v>0</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="8">
         <v>1</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="8">
         <v>2</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="8">
         <v>3</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="5" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="9" t="s">
+      <c r="C24" s="4"/>
+      <c r="D24" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="5" t="s">
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="N24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="9" t="s">
+      <c r="C25" s="4"/>
+      <c r="D25" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="6" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="6"/>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27"/>
+      <c r="J27"/>
+      <c r="K27"/>
+      <c r="L27" s="2"/>
+      <c r="M27"/>
+      <c r="N27"/>
+      <c r="O27"/>
+      <c r="P27"/>
+      <c r="Q27"/>
+      <c r="R27" s="2"/>
+      <c r="S27"/>
+      <c r="T27"/>
+      <c r="U27"/>
+      <c r="V27"/>
+      <c r="W27"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="5" t="s">
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+      <c r="B29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="9" t="s">
+      <c r="C29" s="4"/>
+      <c r="D29" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="5" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="8"/>
+      <c r="B30" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="9" t="s">
+      <c r="C30" s="4"/>
+      <c r="D30" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="8"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+    </row>
+    <row r="32" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="6" t="s">
         <v>58</v>
       </c>
       <c r="C32" s="6"/>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A33" s="3" t="s">
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32"/>
+      <c r="J32"/>
+      <c r="K32"/>
+      <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
+      <c r="O32"/>
+      <c r="P32"/>
+      <c r="Q32"/>
+      <c r="R32"/>
+      <c r="S32"/>
+      <c r="T32"/>
+      <c r="U32"/>
+      <c r="V32"/>
+      <c r="W32"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="8" t="s">
+      <c r="C33" s="8"/>
+      <c r="D33" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="9" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="9" t="s">
+      <c r="C35" s="4"/>
+      <c r="D35" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-    </row>
-    <row r="37" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    </row>
+    <row r="37" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="6" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="6"/>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" s="3" t="s">
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="8" t="s">
+      <c r="C38" s="8"/>
+      <c r="D38" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="5"/>
+      <c r="B39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="9" t="s">
+      <c r="C39" s="4"/>
+      <c r="D39" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="5"/>
+      <c r="B40" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="9" t="s">
+      <c r="C40" s="4"/>
+      <c r="D40" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D41" s="11"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="D41:I41"/>
-    <mergeCell ref="D42:I42"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D39:I39"/>
-    <mergeCell ref="D4:I4"/>
-    <mergeCell ref="D9:I9"/>
-    <mergeCell ref="D10:I10"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D21:I21"/>
-    <mergeCell ref="D22:I22"/>
-    <mergeCell ref="D18:I18"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D24:I24"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D27:I27"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D30:I30"/>
-    <mergeCell ref="D31:I31"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="D7:I7"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D19:I19"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D15:I15"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D12:I12"/>
-    <mergeCell ref="D13:I13"/>
+  <mergeCells count="43">
+    <mergeCell ref="D12:H12"/>
+    <mergeCell ref="D13:H13"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="D17:H17"/>
+    <mergeCell ref="D19:H19"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
+    <mergeCell ref="D16:H16"/>
+    <mergeCell ref="D20:H20"/>
+    <mergeCell ref="D21:H21"/>
+    <mergeCell ref="D22:H22"/>
+    <mergeCell ref="D18:H18"/>
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="D23:H23"/>
+    <mergeCell ref="D24:H24"/>
+    <mergeCell ref="D25:H25"/>
+    <mergeCell ref="D26:H26"/>
+    <mergeCell ref="D27:H27"/>
+    <mergeCell ref="D28:H28"/>
+    <mergeCell ref="D29:H29"/>
+    <mergeCell ref="D30:H30"/>
+    <mergeCell ref="D31:H31"/>
+    <mergeCell ref="D32:H32"/>
+    <mergeCell ref="D33:H33"/>
+    <mergeCell ref="D4:H4"/>
+    <mergeCell ref="D9:H9"/>
+    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D11:H11"/>
+    <mergeCell ref="D8:H8"/>
+    <mergeCell ref="D5:H5"/>
+    <mergeCell ref="D6:H6"/>
+    <mergeCell ref="D7:H7"/>
+    <mergeCell ref="D40:H40"/>
+    <mergeCell ref="D41:H41"/>
+    <mergeCell ref="D42:H42"/>
+    <mergeCell ref="D43:H43"/>
+    <mergeCell ref="D35:H35"/>
+    <mergeCell ref="D36:H36"/>
+    <mergeCell ref="D37:H37"/>
+    <mergeCell ref="D38:H38"/>
+    <mergeCell ref="D39:H39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>